--- a/Dyck 1 Counter/Dyck1_Counter_7_early_stopping_Sigmoid_BCE.xlsx
+++ b/Dyck 1 Counter/Dyck1_Counter_7_early_stopping_Sigmoid_BCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>epochs</t>
   </si>
@@ -82,172 +82,25 @@
     <t>epoch incorrect guesses</t>
   </si>
   <si>
-    <t>[-0.00430076  1.0046291 ]</t>
-  </si>
-  <si>
-    <t>[-0.00430076  1.0094061 ]</t>
-  </si>
-  <si>
-    <t>[-0.00430076  1.0141689 ]</t>
-  </si>
-  <si>
-    <t>-0.009635663</t>
-  </si>
-  <si>
-    <t>-0.0048587867</t>
-  </si>
-  <si>
-    <t>-9.584931e-05</t>
-  </si>
-  <si>
-    <t>[ 1.0044382  -0.00783964]</t>
-  </si>
-  <si>
-    <t>[ 1.0096779  -0.00783964]</t>
-  </si>
-  <si>
-    <t>[ 1.0147103  -0.00783964]</t>
-  </si>
-  <si>
-    <t>-0.0034016413</t>
-  </si>
-  <si>
-    <t>-0.005868456</t>
-  </si>
-  <si>
-    <t>-0.0008359819</t>
-  </si>
-  <si>
-    <t>[1.004426  0.9962705]</t>
-  </si>
-  <si>
-    <t>[1.0091282 1.0072463]</t>
-  </si>
-  <si>
-    <t>[1.013876  1.0162688]</t>
-  </si>
-  <si>
-    <t>-0.0085908</t>
-  </si>
-  <si>
-    <t>0.0028966716</t>
-  </si>
-  <si>
-    <t>0.0035865826</t>
-  </si>
-  <si>
-    <t>[1.004224  1.0134541]</t>
-  </si>
-  <si>
-    <t>[1.0093658 1.0119313]</t>
-  </si>
-  <si>
-    <t>[1.014378 1.012964]</t>
-  </si>
-  <si>
-    <t>0.00064329524</t>
-  </si>
-  <si>
-    <t>-0.0080041215</t>
-  </si>
-  <si>
-    <t>-0.003768885</t>
-  </si>
-  <si>
-    <t>[-1.016128    0.98667896]</t>
-  </si>
-  <si>
-    <t>[-1.0223222  0.9845134]</t>
-  </si>
-  <si>
-    <t>[-1.0208219  0.9906867]</t>
-  </si>
-  <si>
-    <t>-0.012241252</t>
-  </si>
-  <si>
-    <t>-0.015158069</t>
-  </si>
-  <si>
-    <t>-0.013007571</t>
-  </si>
-  <si>
-    <t>[1.0029821]</t>
-  </si>
-  <si>
-    <t>[1.0071324]</t>
-  </si>
-  <si>
-    <t>[1.0116209]</t>
-  </si>
-  <si>
-    <t>-0.012203833</t>
-  </si>
-  <si>
-    <t>-0.015098114</t>
-  </si>
-  <si>
-    <t>-0.0129664205</t>
-  </si>
-  <si>
-    <t>[ 0.9872625 -1.016815 ]</t>
-  </si>
-  <si>
-    <t>[ 0.9858524 -1.0231806]</t>
-  </si>
-  <si>
-    <t>[ 0.99249643 -1.0219005 ]</t>
-  </si>
-  <si>
-    <t>-0.008320893</t>
-  </si>
-  <si>
-    <t>-0.010902921</t>
-  </si>
-  <si>
-    <t>-0.0058629476</t>
-  </si>
-  <si>
-    <t>[1.0041212 1.0109812]</t>
-  </si>
-  <si>
-    <t>[1.0091586 1.0227752]</t>
-  </si>
-  <si>
-    <t>[1.0143136 1.0345612]</t>
-  </si>
-  <si>
-    <t>-0.015086826</t>
-  </si>
-  <si>
-    <t>-0.007073853</t>
-  </si>
-  <si>
-    <t>-0.0024263693</t>
-  </si>
-  <si>
-    <t>[1.0040677 1.0030347]</t>
-  </si>
-  <si>
-    <t>[1.0089644 1.007217 ]</t>
-  </si>
-  <si>
-    <t>[1.01401  1.011675]</t>
-  </si>
-  <si>
-    <t>-0.025232837</t>
-  </si>
-  <si>
-    <t>-0.049042232</t>
-  </si>
-  <si>
-    <t>-0.07257431</t>
-  </si>
-  <si>
-    <t>['()', '()()', '()', '()()', '()()', '()', '()', '()', '()()']</t>
-  </si>
-  <si>
-    <t>['()()']</t>
+    <t>[0. 1.]</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>[1. 0.]</t>
+  </si>
+  <si>
+    <t>[1. 1.]</t>
+  </si>
+  <si>
+    <t>[-1.  1.]</t>
+  </si>
+  <si>
+    <t>[1.]</t>
+  </si>
+  <si>
+    <t>[ 1. -1.]</t>
   </si>
   <si>
     <t>[]</t>
@@ -608,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,206 +546,64 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>58</v>
-      </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="U2">
-        <v>0.4164836759036916</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="W2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3">
-        <v>0.3972026174318065</v>
-      </c>
-      <c r="V3">
-        <v>95.83333333333334</v>
-      </c>
-      <c r="W3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4">
-        <v>0.384423763139542</v>
-      </c>
-      <c r="V4">
-        <v>100</v>
-      </c>
-      <c r="W4" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
